--- a/Template/Graphics/LinBa_X.xlsx
+++ b/Template/Graphics/LinBa_X.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="7710" tabRatio="764" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="7710" tabRatio="764" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chile" sheetId="8" r:id="rId1"/>
     <sheet name="Surinam" sheetId="10" r:id="rId2"/>
-    <sheet name="Costa Rica" sheetId="9" r:id="rId3"/>
-    <sheet name="BOLIVIA INLASA" sheetId="2" r:id="rId4"/>
-    <sheet name="BOLIVIA CENETROP" sheetId="6" r:id="rId5"/>
+    <sheet name="Jamaica" sheetId="11" r:id="rId3"/>
+    <sheet name="Costa Rica" sheetId="9" r:id="rId4"/>
+    <sheet name="BOLIVIA INLASA" sheetId="2" r:id="rId5"/>
+    <sheet name="BOLIVIA CENETROP" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="El_Salvador" localSheetId="4">#REF!</definedName>
+    <definedName name="El_Salvador" localSheetId="5">#REF!</definedName>
     <definedName name="El_Salvador">#REF!</definedName>
-    <definedName name="Mapa_2012" localSheetId="4">#REF!</definedName>
+    <definedName name="Mapa_2012" localSheetId="5">#REF!</definedName>
     <definedName name="Mapa_2012">#REF!</definedName>
-    <definedName name="table" localSheetId="4">#REF!</definedName>
+    <definedName name="table" localSheetId="5">#REF!</definedName>
     <definedName name="table">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>SE</t>
   </si>
@@ -63,9 +64,6 @@
     <t>Alert Threshold</t>
   </si>
   <si>
-    <t>Lower Limit</t>
-  </si>
-  <si>
     <t>Seasonal Threshold</t>
   </si>
   <si>
@@ -74,18 +72,73 @@
   <si>
     <t>SARI Average Epi Curve</t>
   </si>
+  <si>
+    <t>Average epidemic curve (2011-2017)</t>
+  </si>
+  <si>
+    <t>Seasonal Trend</t>
+  </si>
+  <si>
+    <t>SARI 2018</t>
+  </si>
+  <si>
+    <t>PAHO-LINE-COLOR</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Parametros</t>
+  </si>
+  <si>
+    <t>Jamaica: Percentage of Hospital Admissions for Severe Acute Respiratory Illness (SARI 2018) (compared with 2011-2017)</t>
+  </si>
+  <si>
+    <t>Año evaluacion</t>
+  </si>
+  <si>
+    <t>Semana inicio periodo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Porcentaje de positividad para influenza - Vigilancia centinela de IRAG de Chile durante 2017. (En comparación al período 2011 - 2016. SE 1 a 52</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Baselines: Suriname Percentage Positivity for Influenza 2016 and SARI cases (%) (As Compare To 2010 - 2015) - EW 1 to EW 52 2016</t>
+  </si>
+  <si>
+    <t>Líneas de base: Costa Rica, porcentaje de positividad para influenza en 2016-2017 en comparación al período 2011-2015/2016. Semana epidemiológica 1 a 52</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Líneas de base: Bolivia, porcentaje de positividad para influenza durante 2016 en comparación al período 2010-2015. Semana epidemiologica 1 a 52.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="[$-80A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$-80A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +372,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,18 +607,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
@@ -591,8 +640,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -775,6 +848,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="462">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -826,7 +1066,7 @@
     <xf numFmtId="0" fontId="8" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -913,7 +1153,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
@@ -1000,7 +1240,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
@@ -1227,7 +1467,7 @@
     <xf numFmtId="0" fontId="8" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1261,16 +1501,16 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1287,7 +1527,7 @@
     <xf numFmtId="9" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1295,41 +1535,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="450" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="13" xfId="450" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1341,30 +1569,129 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="2" xfId="461" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="2" xfId="461" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="43" borderId="2" xfId="461" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="15" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="45" borderId="2" xfId="461" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="15" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="51" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="51" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="462">
     <cellStyle name="20% - Énfasis1 2" xfId="3"/>
@@ -1862,6 +2189,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
@@ -2937,11 +3265,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="177764608"/>
-        <c:axId val="177765168"/>
+        <c:axId val="-742506960"/>
+        <c:axId val="-742499888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177764608"/>
+        <c:axId val="-742506960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,10 +3312,10 @@
             <a:pPr>
               <a:defRPr sz="1200" b="1"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177765168"/>
+        <c:crossAx val="-742499888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2995,7 +3323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177765168"/>
+        <c:axId val="-742499888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -3066,10 +3394,10 @@
             <a:pPr>
               <a:defRPr sz="1200" b="1"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177764608"/>
+        <c:crossAx val="-742506960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3107,7 +3435,7 @@
           <a:pPr>
             <a:defRPr sz="1100" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3165,7 +3493,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4704,11 +5031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="178343648"/>
-        <c:axId val="178344208"/>
+        <c:axId val="-742504784"/>
+        <c:axId val="-742509680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178343648"/>
+        <c:axId val="-742504784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4737,7 +5064,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4758,10 +5084,10 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178344208"/>
+        <c:crossAx val="-742509680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4770,7 +5096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178344208"/>
+        <c:axId val="-742509680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4846,10 +5172,10 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178343648"/>
+        <c:crossAx val="-742504784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4887,7 +5213,7 @@
               <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4917,7 +5243,7 @@
           <a:cs typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6656,11 +6982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="178349248"/>
-        <c:axId val="178712176"/>
+        <c:axId val="-742503696"/>
+        <c:axId val="-742502608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178349248"/>
+        <c:axId val="-742503696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6687,7 +7013,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6701,10 +7026,10 @@
             <a:pPr>
               <a:defRPr sz="1800" b="1"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178712176"/>
+        <c:crossAx val="-742502608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6712,7 +7037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178712176"/>
+        <c:axId val="-742502608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6754,7 +7079,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -6768,10 +7092,10 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178349248"/>
+        <c:crossAx val="-742503696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6800,7 +7124,7 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8378,11 +8702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="178717216"/>
-        <c:axId val="178717776"/>
+        <c:axId val="-742511856"/>
+        <c:axId val="-742510224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178717216"/>
+        <c:axId val="-742511856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8409,7 +8733,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8423,10 +8746,10 @@
             <a:pPr>
               <a:defRPr sz="1800" b="1"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178717776"/>
+        <c:crossAx val="-742510224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8434,7 +8757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178717776"/>
+        <c:axId val="-742510224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8476,7 +8799,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -8490,10 +8812,10 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178717216"/>
+        <c:crossAx val="-742511856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8522,7 +8844,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="1"/>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8549,15 +8871,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>258537</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>53521</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17237</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8586,16 +8908,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>240847</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8624,15 +8946,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>587375</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>288037</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>193634</xdr:rowOff>
+      <xdr:colOff>351537</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161884</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8661,15 +8983,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>140805</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>155713</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>474180</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8981,12 +9303,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="6"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:E54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8996,910 +9319,938 @@
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+      <c r="I2" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>6.0482440962029939E-3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>2.0115059685390711E-2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>2.5531962709731321E-2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+      <c r="I3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>4.7518220839454957E-3</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>1.5924957180778153E-2</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
+      <c r="I4" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>5.7599480225100546E-3</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>1.5222044114434022E-2</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+      <c r="I5" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>1.5440001771623116E-2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>3.7939489745279928E-2</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>1.6782058438484227E-2</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>3.702615686854871E-2</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>1.4026129061859001E-2</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>2.8371361050871142E-2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>8.9389036465603016E-3</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>2.2582274066081105E-2</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>8.5283854561959988E-3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>1.9494780207877493E-2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>8.0979214975326601E-3</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>1.5949449447112359E-2</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>8.1548860082535386E-3</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>1.3216494976112925E-2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>7.3739618083515186E-3</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>1.312974325642657E-2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>5.9444649326279167E-3</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>9.1584648100564436E-3</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>7.3499437776732733E-3</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>1.4784062508298983E-2</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>7.3949009499015041E-3</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>1.714252407422534E-2</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>8.4871180430231147E-3</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>1.8926234229042899E-2</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>9.2115314546353574E-3</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>2.0277045305166122E-2</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>1.0648207464764152E-2</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>1.954524642097161E-2</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>1.3595157078886658E-2</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>2.5060026765876552E-2</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>1.622381420411248E-2</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>2.935641378055872E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>2.2768295760666333E-2</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>4.4288608456877043E-2</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>2.9186481162142817E-2</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>5.9846126483068904E-2</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>3.5669327803904728E-2</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>6.7321337061055891E-2</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>4.1861898463031122E-2</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>7.8153294564163561E-2</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>4.8703646885041078E-2</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>8.3568096685460003E-2</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>5.6828272451663171E-2</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <v>9.3875884999986392E-2</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>6.6659553571095806E-2</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>0.10786214855779627</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>7.6421336350886257E-2</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>0.11937522430827154</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>8.8057497369538773E-2</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>0.12679278867443641</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="17">
         <v>0.105</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>29</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>9.6346733764899509E-2</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>0.12789534483415954</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="17">
         <v>0.122</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>0.1050394907452251</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>0.14299646776859598</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>31</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>0.10825612718681747</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>0.17347253746127131</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <v>0.151</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <v>0.10514455796129457</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <v>0.18898684181862674</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <v>0.153</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>33</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>0.1013946179992803</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="16">
         <v>0.20922544264110665</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <v>0.129</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>34</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>9.4509373577413555E-2</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>0.20937564832205635</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="17">
         <v>0.123</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>35</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>8.9611552779797612E-2</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>0.21343394566413443</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <v>0.124</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>36</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>7.9858791786409908E-2</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>0.19603280348044236</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="17">
         <v>0.114</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>37</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="16">
         <v>6.8260263544689073E-2</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <v>0.15929908528222042</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="17">
         <v>0.109</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>38</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>5.7618647652066861E-2</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>0.1223012349884085</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>39</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>4.5599786421630796E-2</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>8.6882203853926698E-2</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="17">
         <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>40</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>3.8654658646351411E-2</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <v>7.3004042211433057E-2</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="17">
         <v>0.111</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>41</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>3.3553401047391317E-2</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>6.278209987372832E-2</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="17">
         <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>42</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>3.0741987487273418E-2</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>5.854891315687763E-2</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="17">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>43</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>2.8981745983619574E-2</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <v>5.4526527384378992E-2</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="17">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>44</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>2.7119882970061005E-2</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>5.1007930059084008E-2</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="17">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>45</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>2.6856103434577783E-2</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="16">
         <v>5.3927004020337392E-2</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="17">
         <v>0.04</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>46</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>2.727697520780727E-2</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="16">
         <v>5.6178274913487508E-2</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="17">
         <v>0.06</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>47</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>2.7060551490430972E-2</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="16">
         <v>5.7816891897166711E-2</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="17">
         <v>0.03</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>48</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>2.8291429809465519E-2</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="16">
         <v>5.906159307636874E-2</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="17">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>49</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>2.7510498425478962E-2</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="16">
         <v>5.8812910414577563E-2</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="17">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>50</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="16">
         <v>3.5879162180912395E-2</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <v>6.4447840814190471E-2</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="17">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>51</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="16">
         <v>3.6793978141629415E-2</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="16">
         <v>6.9216300574911224E-2</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="17">
         <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="20">
+      <c r="A54" s="19">
         <v>52</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="20">
         <v>3.2878452671280083E-2</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>5.7330119604950928E-2</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="20">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="17">
         <v>1.2E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -9911,11 +10262,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:I54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9925,1200 +10276,908 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="116.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" s="33" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="38">
         <v>3.6842657666666667E-2</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="39">
         <v>0.1</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="40">
         <v>0</v>
       </c>
-      <c r="H3" s="37">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="38">
         <v>2.7386623666666665E-2</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="39">
         <v>0.1</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="40">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="38">
         <v>2.5675562388888889E-2</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="39">
         <v>0.1</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="40">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>0.55439688501729023</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-0.22106355168395689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="38">
         <v>2.0808522999999999E-2</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="39">
         <v>0.1</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="40">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>0.42769150871675593</v>
-      </c>
-      <c r="I6" s="4">
-        <v>-0.20546928649453372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="38">
         <v>4.46431355E-2</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="39">
         <v>0.1</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="40">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-0.38166666666666671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="38">
         <v>5.466656608333334E-2</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="39">
         <v>0.1</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="40">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="I8" s="4">
-        <v>-0.19083333333333335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>0.14583333333333334</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="38">
         <v>6.4056296833333332E-2</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="39">
         <v>0.1</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="40">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <v>0.6256250000000001</v>
-      </c>
-      <c r="I9" s="4">
-        <v>-0.33395833333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>0.11805555555555554</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="38">
         <v>6.9032292833333328E-2</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="39">
         <v>0.1</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="40">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H10" s="4">
-        <v>0.50645833333333323</v>
-      </c>
-      <c r="I10" s="4">
-        <v>-0.27034722222222218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>0.17361111111111108</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="38">
         <v>6.4523752416666663E-2</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="39">
         <v>0.1</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="40">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H11" s="4">
-        <v>0.74479166666666652</v>
-      </c>
-      <c r="I11" s="4">
-        <v>-0.39756944444444442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>0.17361111111111108</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="38">
         <v>5.7062870583333335E-2</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="39">
         <v>0.1</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="40">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.74479166666666652</v>
-      </c>
-      <c r="I12" s="4">
-        <v>-0.39756944444444442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>0.11805555555555554</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="38">
         <v>5.0320671750000004E-2</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="39">
         <v>0.1</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="40">
         <v>0.1761904761904762</v>
       </c>
-      <c r="H13" s="4">
-        <v>0.50645833333333323</v>
-      </c>
-      <c r="I13" s="4">
-        <v>-0.27034722222222218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="38">
         <v>4.8275961333333332E-2</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="39">
         <v>0.1</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="40">
         <v>0.3428571428571428</v>
       </c>
-      <c r="H14" s="4">
-        <v>0.268125</v>
-      </c>
-      <c r="I14" s="4">
-        <v>-0.143125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.14166666666666666</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="38">
         <v>4.6300014583333327E-2</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="39">
         <v>0.1</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="40">
         <v>0.43452380952380953</v>
       </c>
-      <c r="H15" s="4">
-        <v>0.38015489818779241</v>
-      </c>
-      <c r="I15" s="4">
-        <v>-9.6821564854459086E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>0.18333333333333332</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="38">
         <v>4.8764137666666672E-2</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="39">
         <v>0.1</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="40">
         <v>0.40277777777777773</v>
       </c>
-      <c r="H16" s="4">
-        <v>0.36519492600448777</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.4717406621788665E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>0.21111111111111108</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="38">
         <v>5.4105229444444437E-2</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="39">
         <v>0.1</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="40">
         <v>0.23611111111111108</v>
       </c>
-      <c r="H17" s="4">
-        <v>0.40626437471768351</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.5957847504538658E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>0.10416666666666666</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="38">
         <v>6.4448162555555563E-2</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="39">
         <v>0.1</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="40">
         <v>0.24836601307189543</v>
       </c>
-      <c r="H18" s="4">
-        <v>0.25514284446588131</v>
-      </c>
-      <c r="I18" s="4">
-        <v>-4.6809511132548026E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>0.14027777777777778</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="38">
         <v>6.2570700888888886E-2</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="39">
         <v>0.1</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="40">
         <v>0.26688453159041398</v>
       </c>
-      <c r="H19" s="4">
-        <v>0.26677245750576317</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1.3783098049792386E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>0.23750000000000002</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="38">
         <v>5.6429581777777765E-2</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="39">
         <v>0.1</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="40">
         <v>0.3002178649237473</v>
       </c>
-      <c r="H20" s="4">
-        <v>0.55208448603745952</v>
-      </c>
-      <c r="I20" s="4">
-        <v>-7.7084486037459515E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>0.32678571428571423</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="38">
         <v>4.2301391111111107E-2</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="39">
         <v>0.1</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="40">
         <v>0.24629629629629632</v>
       </c>
-      <c r="H21" s="4">
-        <v>0.84123244972927713</v>
-      </c>
-      <c r="I21" s="4">
-        <v>-0.18766102115784866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>0.47123015873015872</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="38">
         <v>3.5045092444444446E-2</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="39">
         <v>0.1</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="40">
         <v>0.16428571428571428</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.076295065451053</v>
-      </c>
-      <c r="I22" s="4">
-        <v>-0.13383474799073558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>0.52628968253968245</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="38">
         <v>3.4416402888888885E-2</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="39">
         <v>0.1</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="40">
         <v>0.17857142857142858</v>
       </c>
-      <c r="H23" s="4">
-        <v>1.03425101479717</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1.8328350282194927E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="4">
         <v>0.6073322510822512</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="38">
         <v>4.3112780222222223E-2</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="39">
         <v>0.1</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="40">
         <v>0.11746031746031745</v>
       </c>
-      <c r="H24" s="4">
-        <v>1.0733094920481989</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.14135501011630353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>0.57071608946608943</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="38">
         <v>5.2796712999999995E-2</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="39">
         <v>0.1</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="40">
         <v>9.7619047619047605E-2</v>
       </c>
-      <c r="H25" s="4">
-        <v>0.99831694887957323</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.14311523005260562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>0.51565656565656559</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="38">
         <v>5.6732744222222221E-2</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="39">
         <v>0.1</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="40">
         <v>8.9215686274509806E-2</v>
       </c>
-      <c r="H26" s="4">
-        <v>0.95987403843438235</v>
-      </c>
-      <c r="I26" s="4">
-        <v>7.1439092878748833E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>0.43560606060606066</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="38">
         <v>5.4077590333333335E-2</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="39">
         <v>0.1</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="40">
         <v>8.5511982570806097E-2</v>
       </c>
-      <c r="H27" s="4">
-        <v>0.83974530534239833</v>
-      </c>
-      <c r="I27" s="4">
-        <v>3.1466815869722997E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="4">
         <v>0.39583333333333337</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="38">
         <v>5.1379304888888887E-2</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="39">
         <v>0.1</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="40">
         <v>8.5511982570806097E-2</v>
       </c>
-      <c r="H28" s="4">
-        <v>0.98145359004363919</v>
-      </c>
-      <c r="I28" s="4">
-        <v>-0.18978692337697245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="38">
         <v>5.3791606333333332E-2</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="39">
         <v>0.1</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="40">
         <v>0.10185185185185186</v>
       </c>
-      <c r="H29" s="4">
-        <v>1.0648094667631327</v>
-      </c>
-      <c r="I29" s="4">
-        <v>-0.29397613342979928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="4">
         <v>0.34375</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="38">
         <v>5.8311923666666675E-2</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="39">
         <v>0.1</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="40">
         <v>0.10087719298245613</v>
       </c>
-      <c r="H30" s="4">
-        <v>1.078511125341874</v>
-      </c>
-      <c r="I30" s="4">
-        <v>-0.3910111253418741</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="4">
         <v>0.27430555555555552</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="38">
         <v>6.0472145666666671E-2</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="39">
         <v>0.1</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="40">
         <v>7.3099415204678359E-2</v>
       </c>
-      <c r="H31" s="4">
-        <v>0.81893752195955716</v>
-      </c>
-      <c r="I31" s="4">
-        <v>-0.27032641084844616</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="4">
         <v>0.23353174603174603</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="38">
         <v>6.0452273444444447E-2</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="39">
         <v>0.1</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="40">
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="H32" s="4">
-        <v>0.61059158287899173</v>
-      </c>
-      <c r="I32" s="4">
-        <v>-0.14352809081549966</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="4">
         <v>0.24047619047619045</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="38">
         <v>5.751830911111111E-2</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="39">
         <v>0.1</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="40">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="H33" s="4">
-        <v>0.70264285714285712</v>
-      </c>
-      <c r="I33" s="4">
-        <v>-0.22169047619047622</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="4">
         <v>0.22589285714285715</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="38">
         <v>5.4456046333333334E-2</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="39">
         <v>0.1</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="40">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="H34" s="4">
-        <v>0.62583539696107904</v>
-      </c>
-      <c r="I34" s="4">
-        <v>-0.17404968267536472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="4">
         <v>0.20763888888888887</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="38">
         <v>4.6403982888888889E-2</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="39">
         <v>0.1</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="40">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="H35" s="4">
-        <v>0.6769866785462495</v>
-      </c>
-      <c r="I35" s="4">
-        <v>-0.26170890076847181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="4">
         <v>0.13263888888888889</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="38">
         <v>4.0443746000000003E-2</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="39">
         <v>0.1</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="40">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H36" s="4">
-        <v>0.33741169860152637</v>
-      </c>
-      <c r="I36" s="4">
-        <v>-7.2133920823748587E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="4">
         <v>0.11249999999999999</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="38">
         <v>3.4142904444444441E-2</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="39">
         <v>0.1</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="40">
         <v>0.14444444444444446</v>
       </c>
-      <c r="H37" s="4">
-        <v>0.26180736928269599</v>
-      </c>
-      <c r="I37" s="4">
-        <v>-3.6807369282695984E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="4">
         <v>0.32777777777777778</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="38">
         <v>3.446184077777778E-2</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="39">
         <v>0.1</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="40">
         <v>0.18366013071895426</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.0653716062933081</v>
-      </c>
-      <c r="I38" s="4">
-        <v>-0.40981605073775257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="4">
         <v>0.25416666666666665</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="38">
         <v>3.2377209333333337E-2</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="39">
         <v>0.1</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="40">
         <v>0.26143790849673199</v>
       </c>
-      <c r="H39" s="4">
-        <v>0.8117325171830313</v>
-      </c>
-      <c r="I39" s="4">
-        <v>-0.303399183849698</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="4">
         <v>0.23522727272727273</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="38">
         <v>3.1688143888888888E-2</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="39">
         <v>0.1</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="40">
         <v>0.18062982768865121</v>
       </c>
-      <c r="H40" s="4">
-        <v>0.72552530226248102</v>
-      </c>
-      <c r="I40" s="4">
-        <v>-0.25507075680793551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="4">
         <v>0.14494949494949494</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="38">
         <v>2.6488240666666663E-2</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="39">
         <v>0.1</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="H41" s="4">
-        <v>0.39005336794061979</v>
-      </c>
-      <c r="I41" s="4">
-        <v>-0.10015437804162991</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="4">
         <v>9.2171717171717168E-2</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="38">
         <v>2.5208340888888889E-2</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="39">
         <v>0.1</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="H42" s="4">
-        <v>0.17834511352429344</v>
-      </c>
-      <c r="I42" s="4">
-        <v>5.9983208191409093E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="41"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="4">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="38">
         <v>2.7549066222222224E-2</v>
       </c>
-      <c r="D43" s="44">
+      <c r="D43" s="39">
         <v>0.1</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="H43" s="4">
-        <v>8.7361111111111112E-2</v>
-      </c>
-      <c r="I43" s="4">
-        <v>-4.027777777777776E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="4">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="38">
         <v>3.5434656111111108E-2</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="39">
         <v>0.1</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="H44" s="4">
-        <v>8.0541177378718576E-2</v>
-      </c>
-      <c r="I44" s="4">
-        <v>-2.4985621823163016E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="4">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="38">
         <v>4.6252543666666673E-2</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="39">
         <v>0.1</v>
       </c>
-      <c r="E45" s="46"/>
-      <c r="H45" s="4">
-        <v>5.9583333333333328E-2</v>
-      </c>
-      <c r="I45" s="4">
-        <v>-3.1805555555555552E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="38">
         <v>5.9505961444444443E-2</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="39">
         <v>0.1</v>
       </c>
-      <c r="E46" s="46"/>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="38">
         <v>6.5680526111111109E-2</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="39">
         <v>0.1</v>
       </c>
-      <c r="E47" s="46"/>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="4">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="38">
         <v>6.6235374333333333E-2</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="39">
         <v>0.1</v>
       </c>
-      <c r="E48" s="46"/>
-      <c r="H48" s="4">
-        <v>5.1071428571428566E-2</v>
-      </c>
-      <c r="I48" s="4">
-        <v>-2.7261904761904758E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="4">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="38">
         <v>5.261954533333333E-2</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="39">
         <v>0.1</v>
       </c>
-      <c r="E49" s="46"/>
-      <c r="H49" s="4">
-        <v>5.1071428571428566E-2</v>
-      </c>
-      <c r="I49" s="4">
-        <v>-2.7261904761904758E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="41"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="4">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="38">
         <v>4.5459550500000001E-2</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="39">
         <v>0.1</v>
       </c>
-      <c r="E50" s="46"/>
-      <c r="H50" s="4">
-        <v>5.1071428571428566E-2</v>
-      </c>
-      <c r="I50" s="4">
-        <v>-2.7261904761904758E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="41"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="38">
         <v>4.1425999166666665E-2</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="39">
         <v>0.1</v>
       </c>
-      <c r="E51" s="46"/>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="41"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="38">
         <v>7.0600429666666659E-2</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="39">
         <v>0.1</v>
       </c>
-      <c r="E52" s="46"/>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="41"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="38">
         <v>6.0253902333333331E-2</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D53" s="39">
         <v>0.1</v>
       </c>
-      <c r="E53" s="46"/>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="41"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="38">
         <v>5.0697888999999996E-2</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="39">
         <v>0.1</v>
       </c>
-      <c r="E54" s="46"/>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
+      <c r="E54" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
   <conditionalFormatting sqref="B3:B54">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -11130,7 +11189,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11138,12 +11197,914 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="25.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="108.5703125" customWidth="1"/>
+    <col min="11" max="11" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="62">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63">
+        <v>6.9043067593340416E-3</v>
+      </c>
+      <c r="C3" s="64">
+        <v>1.7124465945816261E-2</v>
+      </c>
+      <c r="D3" s="64">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E3" s="65">
+        <v>1.0111223458038423E-3</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62">
+        <v>2</v>
+      </c>
+      <c r="B4" s="66">
+        <v>9.1587500445043622E-3</v>
+      </c>
+      <c r="C4" s="67">
+        <v>1.9311650455198295E-2</v>
+      </c>
+      <c r="D4" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E4" s="68">
+        <v>1.3192612137203166E-3</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62">
+        <v>3</v>
+      </c>
+      <c r="B5" s="66">
+        <v>1.1354719266763671E-2</v>
+      </c>
+      <c r="C5" s="67">
+        <v>2.3878729044211542E-2</v>
+      </c>
+      <c r="D5" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E5" s="68">
+        <v>1.9329896907216496E-3</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="62">
+        <v>4</v>
+      </c>
+      <c r="B6" s="66">
+        <v>1.2314176325545836E-2</v>
+      </c>
+      <c r="C6" s="67">
+        <v>2.5147967167626642E-2</v>
+      </c>
+      <c r="D6" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E6" s="68">
+        <v>4.5688178183894918E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
+        <v>5</v>
+      </c>
+      <c r="B7" s="66">
+        <v>1.1890745848728198E-2</v>
+      </c>
+      <c r="C7" s="67">
+        <v>2.5504975352140882E-2</v>
+      </c>
+      <c r="D7" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E7" s="68">
+        <v>4.781829049611476E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
+        <v>6</v>
+      </c>
+      <c r="B8" s="66">
+        <v>1.1984989722243447E-2</v>
+      </c>
+      <c r="C8" s="67">
+        <v>2.7954374627110527E-2</v>
+      </c>
+      <c r="D8" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E8" s="68">
+        <v>5.3533190578158455E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>7</v>
+      </c>
+      <c r="B9" s="66">
+        <v>1.2852175098661458E-2</v>
+      </c>
+      <c r="C9" s="67">
+        <v>3.2027393754345476E-2</v>
+      </c>
+      <c r="D9" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E9" s="68">
+        <v>4.229607250755287E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
+        <v>8</v>
+      </c>
+      <c r="B10" s="66">
+        <v>1.2534509819436875E-2</v>
+      </c>
+      <c r="C10" s="67">
+        <v>3.2215138489900881E-2</v>
+      </c>
+      <c r="D10" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E10" s="68">
+        <v>9.8146128680479828E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="62">
+        <v>9</v>
+      </c>
+      <c r="B11" s="66">
+        <v>1.1800218805643718E-2</v>
+      </c>
+      <c r="C11" s="67">
+        <v>2.732717131371654E-2</v>
+      </c>
+      <c r="D11" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E11" s="68"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
+        <v>10</v>
+      </c>
+      <c r="B12" s="66">
+        <v>1.0540813092479321E-2</v>
+      </c>
+      <c r="C12" s="67">
+        <v>2.0619975786634354E-2</v>
+      </c>
+      <c r="D12" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="62">
+        <v>11</v>
+      </c>
+      <c r="B13" s="66">
+        <v>9.3846077208061419E-3</v>
+      </c>
+      <c r="C13" s="67">
+        <v>1.5595699699526601E-2</v>
+      </c>
+      <c r="D13" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E13" s="68"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="62">
+        <v>12</v>
+      </c>
+      <c r="B14" s="66">
+        <v>9.3574642765828064E-3</v>
+      </c>
+      <c r="C14" s="67">
+        <v>1.4348979783926786E-2</v>
+      </c>
+      <c r="D14" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E14" s="68"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="62">
+        <v>13</v>
+      </c>
+      <c r="B15" s="66">
+        <v>9.2360268034449838E-3</v>
+      </c>
+      <c r="C15" s="67">
+        <v>1.4366620969629052E-2</v>
+      </c>
+      <c r="D15" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E15" s="68"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="62">
+        <v>14</v>
+      </c>
+      <c r="B16" s="66">
+        <v>9.1766754025483267E-3</v>
+      </c>
+      <c r="C16" s="67">
+        <v>1.4084256521577555E-2</v>
+      </c>
+      <c r="D16" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E16" s="68"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="62">
+        <v>15</v>
+      </c>
+      <c r="B17" s="66">
+        <v>7.6491624468895889E-3</v>
+      </c>
+      <c r="C17" s="67">
+        <v>1.1078587506379542E-2</v>
+      </c>
+      <c r="D17" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E17" s="68"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="62">
+        <v>16</v>
+      </c>
+      <c r="B18" s="66">
+        <v>7.4303064810811777E-3</v>
+      </c>
+      <c r="C18" s="67">
+        <v>9.4787093350055668E-3</v>
+      </c>
+      <c r="D18" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E18" s="68"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="62">
+        <v>17</v>
+      </c>
+      <c r="B19" s="66">
+        <v>8.0085205971804577E-3</v>
+      </c>
+      <c r="C19" s="67">
+        <v>1.1340526206273398E-2</v>
+      </c>
+      <c r="D19" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E19" s="68"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
+        <v>18</v>
+      </c>
+      <c r="B20" s="66">
+        <v>7.9504378084519177E-3</v>
+      </c>
+      <c r="C20" s="67">
+        <v>1.218264738942589E-2</v>
+      </c>
+      <c r="D20" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E20" s="68"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="62">
+        <v>19</v>
+      </c>
+      <c r="B21" s="66">
+        <v>7.8952219379616051E-3</v>
+      </c>
+      <c r="C21" s="67">
+        <v>1.2920659587410684E-2</v>
+      </c>
+      <c r="D21" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E21" s="68"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
+        <v>20</v>
+      </c>
+      <c r="B22" s="66">
+        <v>7.543428806760023E-3</v>
+      </c>
+      <c r="C22" s="67">
+        <v>1.0456190044715699E-2</v>
+      </c>
+      <c r="D22" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E22" s="68"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="62">
+        <v>21</v>
+      </c>
+      <c r="B23" s="66">
+        <v>7.7084746119894651E-3</v>
+      </c>
+      <c r="C23" s="67">
+        <v>1.0147149409175988E-2</v>
+      </c>
+      <c r="D23" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E23" s="68"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="62">
+        <v>22</v>
+      </c>
+      <c r="B24" s="66">
+        <v>7.1887793352553714E-3</v>
+      </c>
+      <c r="C24" s="67">
+        <v>1.0224058530995972E-2</v>
+      </c>
+      <c r="D24" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E24" s="68"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="62">
+        <v>23</v>
+      </c>
+      <c r="B25" s="66">
+        <v>6.9175531170185605E-3</v>
+      </c>
+      <c r="C25" s="67">
+        <v>1.0425348996531077E-2</v>
+      </c>
+      <c r="D25" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E25" s="68"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
+        <v>24</v>
+      </c>
+      <c r="B26" s="66">
+        <v>7.2427362432643484E-3</v>
+      </c>
+      <c r="C26" s="67">
+        <v>1.0474207851668423E-2</v>
+      </c>
+      <c r="D26" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E26" s="68"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="62">
+        <v>25</v>
+      </c>
+      <c r="B27" s="66">
+        <v>8.1603378816845987E-3</v>
+      </c>
+      <c r="C27" s="67">
+        <v>1.0410783988958531E-2</v>
+      </c>
+      <c r="D27" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E27" s="68"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="62">
+        <v>26</v>
+      </c>
+      <c r="B28" s="66">
+        <v>7.9087444754475846E-3</v>
+      </c>
+      <c r="C28" s="67">
+        <v>9.9201390956469744E-3</v>
+      </c>
+      <c r="D28" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E28" s="68"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="62">
+        <v>27</v>
+      </c>
+      <c r="B29" s="66">
+        <v>8.0136729476432585E-3</v>
+      </c>
+      <c r="C29" s="67">
+        <v>9.7387446137742282E-3</v>
+      </c>
+      <c r="D29" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E29" s="68"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="62">
+        <v>28</v>
+      </c>
+      <c r="B30" s="66">
+        <v>7.510105140024351E-3</v>
+      </c>
+      <c r="C30" s="67">
+        <v>1.1653644509805137E-2</v>
+      </c>
+      <c r="D30" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E30" s="68"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="62">
+        <v>29</v>
+      </c>
+      <c r="B31" s="66">
+        <v>7.5967356199348407E-3</v>
+      </c>
+      <c r="C31" s="67">
+        <v>1.2117382056910139E-2</v>
+      </c>
+      <c r="D31" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E31" s="68"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="62">
+        <v>30</v>
+      </c>
+      <c r="B32" s="66">
+        <v>7.4436354949668033E-3</v>
+      </c>
+      <c r="C32" s="67">
+        <v>1.2637516570857245E-2</v>
+      </c>
+      <c r="D32" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E32" s="68"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="62">
+        <v>31</v>
+      </c>
+      <c r="B33" s="66">
+        <v>7.4610340151371832E-3</v>
+      </c>
+      <c r="C33" s="67">
+        <v>1.5749152372123459E-2</v>
+      </c>
+      <c r="D33" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="62">
+        <v>32</v>
+      </c>
+      <c r="B34" s="66">
+        <v>7.7736326212413647E-3</v>
+      </c>
+      <c r="C34" s="67">
+        <v>1.7668113017987264E-2</v>
+      </c>
+      <c r="D34" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="62">
+        <v>33</v>
+      </c>
+      <c r="B35" s="66">
+        <v>7.2114120534191211E-3</v>
+      </c>
+      <c r="C35" s="67">
+        <v>1.6139987580115814E-2</v>
+      </c>
+      <c r="D35" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E35" s="68"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="62">
+        <v>34</v>
+      </c>
+      <c r="B36" s="66">
+        <v>6.3775639566736207E-3</v>
+      </c>
+      <c r="C36" s="67">
+        <v>1.0617850687208441E-2</v>
+      </c>
+      <c r="D36" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E36" s="68"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="62">
+        <v>35</v>
+      </c>
+      <c r="B37" s="66">
+        <v>6.5631102798584251E-3</v>
+      </c>
+      <c r="C37" s="67">
+        <v>1.2065051276411004E-2</v>
+      </c>
+      <c r="D37" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E37" s="68"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="62">
+        <v>36</v>
+      </c>
+      <c r="B38" s="66">
+        <v>8.3246477455512172E-3</v>
+      </c>
+      <c r="C38" s="67">
+        <v>1.6114660034986572E-2</v>
+      </c>
+      <c r="D38" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E38" s="68"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="62">
+        <v>37</v>
+      </c>
+      <c r="B39" s="66">
+        <v>1.0321950612249909E-2</v>
+      </c>
+      <c r="C39" s="67">
+        <v>2.0843406761687652E-2</v>
+      </c>
+      <c r="D39" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="62">
+        <v>38</v>
+      </c>
+      <c r="B40" s="66">
+        <v>1.1553047974127883E-2</v>
+      </c>
+      <c r="C40" s="67">
+        <v>2.0856002627694742E-2</v>
+      </c>
+      <c r="D40" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E40" s="68"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="62">
+        <v>39</v>
+      </c>
+      <c r="B41" s="66">
+        <v>1.1236337893395187E-2</v>
+      </c>
+      <c r="C41" s="67">
+        <v>1.911296877501624E-2</v>
+      </c>
+      <c r="D41" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E41" s="68"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="62">
+        <v>40</v>
+      </c>
+      <c r="B42" s="66">
+        <v>1.1407691178517549E-2</v>
+      </c>
+      <c r="C42" s="67">
+        <v>1.8024082272587814E-2</v>
+      </c>
+      <c r="D42" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E42" s="68"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="62">
+        <v>41</v>
+      </c>
+      <c r="B43" s="66">
+        <v>1.3537483843852052E-2</v>
+      </c>
+      <c r="C43" s="67">
+        <v>2.1288758194031563E-2</v>
+      </c>
+      <c r="D43" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E43" s="68"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="62">
+        <v>42</v>
+      </c>
+      <c r="B44" s="66">
+        <v>1.3492537439471606E-2</v>
+      </c>
+      <c r="C44" s="67">
+        <v>2.0246886016294423E-2</v>
+      </c>
+      <c r="D44" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E44" s="68"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="62">
+        <v>43</v>
+      </c>
+      <c r="B45" s="66">
+        <v>1.4013642951893923E-2</v>
+      </c>
+      <c r="C45" s="67">
+        <v>2.2590200893007409E-2</v>
+      </c>
+      <c r="D45" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E45" s="68"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="62">
+        <v>44</v>
+      </c>
+      <c r="B46" s="66">
+        <v>1.1164023166456717E-2</v>
+      </c>
+      <c r="C46" s="67">
+        <v>1.847029448807444E-2</v>
+      </c>
+      <c r="D46" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E46" s="68"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="62">
+        <v>45</v>
+      </c>
+      <c r="B47" s="66">
+        <v>1.1706496953909198E-2</v>
+      </c>
+      <c r="C47" s="67">
+        <v>2.0713820030055952E-2</v>
+      </c>
+      <c r="D47" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E47" s="68"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="62">
+        <v>46</v>
+      </c>
+      <c r="B48" s="66">
+        <v>1.0922195683833154E-2</v>
+      </c>
+      <c r="C48" s="67">
+        <v>1.8736121085662753E-2</v>
+      </c>
+      <c r="D48" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E48" s="68"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="62">
+        <v>47</v>
+      </c>
+      <c r="B49" s="66">
+        <v>1.0088727076606489E-2</v>
+      </c>
+      <c r="C49" s="67">
+        <v>1.5743033475578715E-2</v>
+      </c>
+      <c r="D49" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E49" s="68"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="62">
+        <v>48</v>
+      </c>
+      <c r="B50" s="66">
+        <v>7.9915509655949062E-3</v>
+      </c>
+      <c r="C50" s="67">
+        <v>1.1471943123172904E-2</v>
+      </c>
+      <c r="D50" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E50" s="68"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="62">
+        <v>49</v>
+      </c>
+      <c r="B51" s="66">
+        <v>6.7277458147723202E-3</v>
+      </c>
+      <c r="C51" s="67">
+        <v>1.3650409318697768E-2</v>
+      </c>
+      <c r="D51" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E51" s="68"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="62">
+        <v>50</v>
+      </c>
+      <c r="B52" s="66">
+        <v>6.9114988979147056E-3</v>
+      </c>
+      <c r="C52" s="67">
+        <v>1.656174209251347E-2</v>
+      </c>
+      <c r="D52" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E52" s="68"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="62">
+        <v>51</v>
+      </c>
+      <c r="B53" s="66">
+        <v>5.7584293264608061E-3</v>
+      </c>
+      <c r="C53" s="67">
+        <v>1.3709322402591612E-2</v>
+      </c>
+      <c r="D53" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E53" s="68"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="62">
+        <v>52</v>
+      </c>
+      <c r="B54" s="66">
+        <v>4.3329197837990571E-3</v>
+      </c>
+      <c r="C54" s="67">
+        <v>1.0724845612189327E-2</v>
+      </c>
+      <c r="D54" s="67">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E54" s="68"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="62">
+        <v>53</v>
+      </c>
+      <c r="B55" s="69">
+        <v>3.1467312438003834E-3</v>
+      </c>
+      <c r="C55" s="70">
+        <v>1.1526076907323043E-2</v>
+      </c>
+      <c r="D55" s="70">
+        <v>9.0317442152983742E-3</v>
+      </c>
+      <c r="E55" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="15" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11153,6 +12114,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
     <col min="214" max="215" width="9" customWidth="1"/>
     <col min="216" max="216" width="22.28515625" customWidth="1"/>
     <col min="228" max="232" width="14.28515625" customWidth="1"/>
@@ -11848,904 +12810,927 @@
     <col min="16131" max="16131" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="I2" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>15</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>1.4646464646464645E-2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>4.9431437604473674E-2</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>5.6186868686868688E-2</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="I3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>16</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>1.7078189300411523E-2</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>6.573776893239025E-2</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>0.06</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="I4" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>17</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>2.1046443268665491E-2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>6.5153399474104104E-2</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>0.06</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="I5" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>18</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>9.9049739304748422E-3</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>2.460822186756189E-2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>0.06</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>19</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>2.718974405244657E-2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>7.7181142098938837E-2</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>0.06</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>20</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>2.003527018499128E-2</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>5.9045573097218224E-2</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>0.06</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>21</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>1.6571800443918094E-2</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>5.3903071586163608E-2</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>0.06</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>22</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>1.1465417615212213E-2</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>4.45957645192296E-2</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>0.06</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>23</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>1.8764971254757075E-2</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>6.6228012566468555E-2</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>0.06</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>24</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>3.1495025585582863E-2</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <v>9.1760807254721966E-2</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>0.06</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
         <v>25</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>5.145799148426531E-2</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <v>0.15493393973911981</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>0.06</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
         <v>26</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>7.4037607001187333E-2</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>0.22921989027909373</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <v>0.06</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <v>27</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>9.2253073451947887E-2</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="24">
         <v>0.29757626995515341</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>0.06</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <v>28</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>0.10218821053676815</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>0.31777969721092797</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="25">
         <v>0.06</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>29</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>0.11655211174277458</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>0.35170419056432556</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>0.06</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="23">
         <v>30</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>0.12446810840763098</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>0.37014752656661232</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>0.06</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>31</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>0.12949146631419872</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>0.38581908158598144</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <v>0.06</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>32</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>0.13136134031218916</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="24">
         <v>0.38188812091964086</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="25">
         <v>0.06</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>33</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>0.13515566691045108</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="24">
         <v>0.37383701605982445</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="25">
         <v>0.06</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="25">
         <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>34</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>0.15093672318285201</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>0.4133480255860229</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="25">
         <v>0.06</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="25">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>35</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>0.14020531103628753</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>0.37619735926363318</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>0.06</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>36</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>0.13224673387712627</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
         <v>0.35299749171188666</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="25">
         <v>0.06</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="23">
         <v>37</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>0.1082469986358626</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <v>0.27872364886953366</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="25">
         <v>0.06</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="25">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>38</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>0.10581273230909058</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <v>0.26606784783238563</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="25">
         <v>0.06</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="25">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>39</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>0.12470806205277045</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <v>0.28312037596582729</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="25">
         <v>0.06</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="23">
         <v>40</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>0.14190366552074407</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="24">
         <v>0.29683289393730172</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="25">
         <v>0.06</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="25">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>41</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>0.16081905552589237</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="24">
         <v>0.28599353101321912</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="25">
         <v>0.06</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="25">
         <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>42</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>0.15966527063721103</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="24">
         <v>0.24297724147492933</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="25">
         <v>0.06</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="25">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="23">
         <v>43</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>0.16513257043333757</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="24">
         <v>0.25470118597572622</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="25">
         <v>0.06</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="25">
         <v>0.06</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="23">
         <v>44</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>0.17690302732567534</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="24">
         <v>0.26101012400872553</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="25">
         <v>0.06</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="25">
         <v>0.22</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="A33" s="23">
         <v>45</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>0.17462253437915326</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="24">
         <v>0.25760809701655296</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="25">
         <v>0.06</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="25">
         <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34" s="26">
         <v>46</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>0.17751043962988791</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="24">
         <v>0.27310626388388448</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="25">
         <v>0.06</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="25">
         <v>0.31</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="A35" s="23">
         <v>47</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>0.17329561420015463</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <v>0.26415817335836655</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="25">
         <v>0.06</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="25">
         <v>0.24199999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
+      <c r="A36" s="23">
         <v>48</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>0.20929376610016362</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="24">
         <v>0.35194218697191132</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="25">
         <v>0.06</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="25">
         <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+      <c r="A37" s="23">
         <v>49</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>0.22418150338051673</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="24">
         <v>0.38337551088908606</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="25">
         <v>0.06</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="25">
         <v>0.35199999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="23">
         <v>50</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>0.23246200176046511</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="24">
         <v>0.43508246990341615</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="25">
         <v>0.06</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="25">
         <v>0.35</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="23">
         <v>51</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <v>0.19190822105071198</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="24">
         <v>0.39164169132792148</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="25">
         <v>0.06</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="25">
         <v>0.434</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
+      <c r="A40" s="23">
         <v>52</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>0.16823364648071895</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="24">
         <v>0.37791177280739019</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="25">
         <v>0.06</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="25">
         <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+      <c r="A41" s="22">
         <v>1</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <v>0.13919101287011393</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="27">
         <v>0.3437451704992398</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="25">
         <v>0.06</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="25">
         <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="A42" s="22">
         <v>2</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <v>0.11456621724973495</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="27">
         <v>0.28167052652856117</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="25">
         <v>0.06</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="25">
         <v>0.41</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="A43" s="22">
         <v>3</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="21">
         <v>9.0431272814120112E-2</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="27">
         <v>0.21176591099987041</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="25">
         <v>0.06</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="25">
         <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="A44" s="22">
         <v>4</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="21">
         <v>5.8613051218658806E-2</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="27">
         <v>0.12781848866312884</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="25">
         <v>0.06</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="25">
         <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+      <c r="A45" s="22">
         <v>5</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="21">
         <v>5.5818178549899303E-2</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="27">
         <v>0.11923536200507255</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="25">
         <v>0.06</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="25">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="A46" s="22">
         <v>6</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="21">
         <v>5.3632492652713415E-2</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="27">
         <v>0.11368451567657417</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="25">
         <v>0.06</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="25">
         <v>0.183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="A47" s="22">
         <v>7</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="21">
         <v>4.6454274318126619E-2</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="27">
         <v>9.1387346870741543E-2</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="25">
         <v>0.06</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="25">
         <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+      <c r="A48" s="22">
         <v>8</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="21">
         <v>4.5643789585667061E-2</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="27">
         <v>9.1245037393191092E-2</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="25">
         <v>0.06</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="25">
         <v>2.3E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+      <c r="A49" s="22">
         <v>9</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="21">
         <v>3.2245063335350002E-2</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="27">
         <v>7.0428226568896912E-2</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="25">
         <v>0.06</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="25">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
+      <c r="A50" s="22">
         <v>10</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="21">
         <v>3.3165870248262744E-2</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="27">
         <v>7.4074128402458167E-2</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="25">
         <v>0.06</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
+      <c r="A51" s="22">
         <v>11</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="21">
         <v>2.8703678194957262E-2</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="27">
         <v>6.0312728258202074E-2</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="25">
         <v>0.06</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="25">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
+      <c r="A52" s="22">
         <v>12</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="21">
         <v>5.1901168747785775E-2</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="27">
         <v>6.501442706056601E-2</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="25">
         <v>0.06</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="25">
         <v>0.04</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+      <c r="A53" s="22">
         <v>13</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="21">
         <v>4.8810306571536573E-2</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="27">
         <v>6.1657726616653946E-2</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="25">
         <v>0.06</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="25">
         <v>2.3E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
+      <c r="A54" s="22">
         <v>14</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="21">
         <v>5.64796528488603E-2</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="27">
         <v>0.1171678401215864</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="25">
         <v>0.06</v>
       </c>
-      <c r="E54" s="27"/>
+      <c r="E54" s="25"/>
       <c r="F54" t="s">
         <v>6</v>
       </c>
@@ -12754,66 +13739,69 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
+      <c r="A55" s="22">
         <v>15</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="21">
         <v>4.8087402351288569E-2</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="27">
         <v>4.8087402351288569E-2</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="25">
         <v>0.06</v>
       </c>
-      <c r="E55" s="27"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
+      <c r="A56" s="22">
         <v>16</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="21">
         <v>4.0291480943847303E-2</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="27">
         <v>4.0291480943847303E-2</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="25">
         <v>0.06</v>
       </c>
-      <c r="E56" s="27"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
+      <c r="A57" s="22">
         <v>17</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="21">
         <v>2.8420099135750419E-2</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="27">
         <v>2.8420099135750419E-2</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="25">
         <v>0.06</v>
       </c>
-      <c r="E57" s="27"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24">
+      <c r="A58" s="22">
         <v>18</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="21">
         <v>3.4477974790582143E-2</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="27">
         <v>3.4477974790582143E-2</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="25">
         <v>0.06</v>
       </c>
-      <c r="E58" s="27"/>
+      <c r="E58" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
   <conditionalFormatting sqref="B3:B58">
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -12825,21 +13813,22 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="33" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="34" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="15" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="15" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12850,22 +13839,27 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12881,8 +13875,14 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12898,8 +13898,14 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12915,8 +13921,14 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12933,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12950,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12967,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12984,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13001,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13018,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13035,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13052,7 +14064,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13069,7 +14081,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13086,7 +14098,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13766,6 +14778,9 @@
     <row r="117" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
   <conditionalFormatting sqref="B3:B54">
     <cfRule type="colorScale" priority="15">
       <colorScale>
@@ -13782,45 +14797,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="25" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -13836,8 +14858,14 @@
       <c r="E3" s="5">
         <v>0.39400000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -13853,8 +14881,14 @@
       <c r="E4" s="5">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -13870,8 +14904,14 @@
       <c r="E5" s="5">
         <v>0.16300000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -13888,7 +14928,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -13905,7 +14945,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -13922,7 +14962,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -13939,7 +14979,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -13956,7 +14996,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -13973,7 +15013,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -13990,7 +15030,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -14007,7 +15047,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -14024,7 +15064,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -14041,7 +15081,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -14715,6 +15755,9 @@
     </row>
     <row r="59" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
   <conditionalFormatting sqref="B3:B54">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -14726,7 +15769,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="26" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="28" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>